--- a/Client/Assets/Language/LanguagePack.xlsx
+++ b/Client/Assets/Language/LanguagePack.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PlanetMerge\Client\Assets\Language\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siggn\PlanetMerge\Client\Assets\Language\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B3771D-2271-4EA8-8ED2-099BCF3E6269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F7353E-1DC8-403B-928F-4782FEE5B60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{4760DF0C-7382-47A6-9F4B-831A017CFC3A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{4760DF0C-7382-47A6-9F4B-831A017CFC3A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Korean" sheetId="2" r:id="rId1"/>
-    <sheet name="English" sheetId="1" r:id="rId2"/>
-    <sheet name="Japanese" sheetId="3" r:id="rId3"/>
+    <sheet name="Language" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,13 +36,358 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>안녕하세요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hello</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+  <si>
+    <t>최고 점수 : {0}</t>
+  </si>
+  <si>
+    <t>Best score : {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 안내</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How to play</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일시정지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임으로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다시하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인으로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Retry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Go to main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처음부터 다시 하시겠습니까?</t>
+  </si>
+  <si>
+    <t>메인으로 가기</t>
+  </si>
+  <si>
+    <t>메인으로 돌아가시겠습니까?</t>
+  </si>
+  <si>
+    <t>현재 점수 : {0}</t>
+  </si>
+  <si>
+    <t>Score : {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do you want to start all over again?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are you sure you want to go back to the main?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임을 종료하시겠습니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are you sure you want to close the game?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Report</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닫기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업그레이드 순서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1판에 각 1개씩 사용 가능하며, 게임 종료 시 소멸된다.</t>
+  </si>
+  <si>
+    <t>업그레이드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 떨어트릴 수 있는 행성을 한 단계 업그레이드 시킨다.</t>
+  </si>
+  <si>
+    <t>폭탄</t>
+  </si>
+  <si>
+    <t>다운그레이드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 떨어트릴 수 있는 행성을 한 단계 다운그레이드 시킨다.</t>
+  </si>
+  <si>
+    <t>준비 중입니다!</t>
+  </si>
+  <si>
+    <t>Korean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>English</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Japanese</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bomb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Downgrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upgrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upgrade order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You can use one per game, and it will disappear when the game is over.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upgrade the planet you will drop to the next level.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원하는 행성 하나를 선택해 없앨 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You can choose and bomb one planet you want.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Downgrade the planet you will drop to the next level.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>環境設定</t>
+  </si>
+  <si>
+    <t>最高スコア : {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ゲ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303F40"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303F40"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ムスタ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303F40"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303F40"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ト</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ゲ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303F40"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303F40"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ム案</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303F40"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>内</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ゲ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303F40"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303F40"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ム終了</t>
+    </r>
+  </si>
+  <si>
+    <t>별점 주러 가기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Give a rating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coming soon!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -52,7 +395,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,13 +411,48 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF303F40"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF303F40"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -91,8 +469,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -428,57 +815,323 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1509E3D-4988-448B-ADBE-FF9B9ABDBE3F}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A23EAA1B-C57D-4EAB-825F-AE088EBA0DEA}">
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A23EAA1B-C57D-4EAB-825F-AE088EBA0DEA}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="83.5" customWidth="1"/>
-    <col min="2" max="2" width="90.5625" customWidth="1"/>
+    <col min="1" max="1" width="53.08203125" customWidth="1"/>
+    <col min="2" max="2" width="63.5" customWidth="1"/>
+    <col min="3" max="3" width="46.08203125" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" t="s">
         <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E0C9F27-F674-42E6-AE30-95CA766252E3}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
-  <cols>
-    <col min="1" max="1" width="81.25" customWidth="1"/>
-    <col min="2" max="2" width="87.1875" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Client/Assets/Language/LanguagePack.xlsx
+++ b/Client/Assets/Language/LanguagePack.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siggn\PlanetMerge\Client\Assets\Language\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\PlanetMerge\Client\Assets\Language\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F7353E-1DC8-403B-928F-4782FEE5B60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A1D714-B204-4842-B453-AAF684D6CE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{4760DF0C-7382-47A6-9F4B-831A017CFC3A}"/>
+    <workbookView xWindow="1215" yWindow="1080" windowWidth="19005" windowHeight="13980" xr2:uid="{4760DF0C-7382-47A6-9F4B-831A017CFC3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
   <si>
     <t>최고 점수 : {0}</t>
   </si>
@@ -270,9 +270,6 @@
   <si>
     <t>Downgrade the planet you will drop to the next level.</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>環境設定</t>
   </si>
   <si>
     <t>最高スコア : {0}</t>
@@ -342,17 +339,28 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>ム案</t>
+      <t>ム終了</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF303F40"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>内</t>
-    </r>
+  </si>
+  <si>
+    <t>별점 주러 가기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Give a rating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coming soon!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いいえ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -362,8 +370,9 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF303F40"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>ー</t>
     </r>
@@ -375,19 +384,67 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>ム終了</t>
+      <t>ムの遊び方</t>
     </r>
-  </si>
-  <si>
-    <t>별점 주러 가기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Give a rating</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coming soon!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>オプション</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音楽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>閉じる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>サウンド</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>スコア : {0}</t>
+  </si>
+  <si>
+    <t>リトライ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ホームでもどる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>準備しています！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ポーズ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>げ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ーむでもどる／ゲームをつづける</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はじめからやりなおしますか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ゲームをやめてホームでいきますか</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -395,7 +452,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,6 +497,34 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF303F40"/>
+      <name val="MS Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF303F40"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -469,7 +554,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -480,6 +565,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -819,18 +913,18 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="53.08203125" customWidth="1"/>
+    <col min="1" max="1" width="53.125" customWidth="1"/>
     <col min="2" max="2" width="63.5" customWidth="1"/>
-    <col min="3" max="3" width="46.08203125" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="46.125" customWidth="1"/>
+    <col min="4" max="4" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -841,16 +935,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C2" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -858,28 +954,32 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C4" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18.75">
       <c r="A5" t="s">
         <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C5" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -887,10 +987,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -898,10 +998,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -910,7 +1010,7 @@
       </c>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -919,7 +1019,7 @@
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -928,7 +1028,7 @@
       </c>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -937,7 +1037,7 @@
       </c>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -946,7 +1046,7 @@
       </c>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -955,7 +1055,7 @@
       </c>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -964,7 +1064,7 @@
       </c>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -973,7 +1073,7 @@
       </c>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -982,18 +1082,18 @@
       </c>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" ht="18.75">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C17" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1001,10 +1101,10 @@
         <v>9</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1013,120 +1113,142 @@
       </c>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" ht="18.75">
       <c r="A20" t="s">
         <v>10</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C20" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18.75">
       <c r="A21" t="s">
         <v>11</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C21" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18.75">
       <c r="A22" t="s">
         <v>12</v>
       </c>
       <c r="B22" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C22" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="18.75">
       <c r="A23" t="s">
         <v>13</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C23" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>14</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C24" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18.75">
       <c r="A25" t="s">
         <v>15</v>
       </c>
       <c r="B25" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C25" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18.75">
       <c r="A26" t="s">
         <v>23</v>
       </c>
       <c r="B26" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C26" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18.75">
       <c r="A27" t="s">
         <v>35</v>
       </c>
       <c r="B27" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
       <c r="B28" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C28" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18.75">
       <c r="A29" t="s">
         <v>31</v>
       </c>
       <c r="B29" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C29" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>37</v>
       </c>
       <c r="B30" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C30" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="18.75">
       <c r="A31" t="s">
         <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+        <v>66</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Assets/Language/LanguagePack.xlsx
+++ b/Client/Assets/Language/LanguagePack.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\PlanetMerge\Client\Assets\Language\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siggn\PlanetMerge\Client\Assets\Language\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A1D714-B204-4842-B453-AAF684D6CE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB817D7-7E96-4733-BF4C-4578817CA085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="1080" windowWidth="19005" windowHeight="13980" xr2:uid="{4760DF0C-7382-47A6-9F4B-831A017CFC3A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{4760DF0C-7382-47A6-9F4B-831A017CFC3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -440,11 +440,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>はじめからやりなおしますか</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ゲームをやめてホームでいきますか</t>
+    <t>はじめからやりなおしますか?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ゲームをやめてホームでいきますか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>?</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,7 +464,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -913,18 +925,18 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="53.125" customWidth="1"/>
+    <col min="1" max="1" width="53.08203125" customWidth="1"/>
     <col min="2" max="2" width="63.5" customWidth="1"/>
-    <col min="3" max="3" width="46.125" customWidth="1"/>
-    <col min="4" max="4" width="8.625" customWidth="1"/>
+    <col min="3" max="3" width="46.08203125" customWidth="1"/>
+    <col min="4" max="4" width="8.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -935,7 +947,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -946,7 +958,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -957,7 +969,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -968,7 +980,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75">
+    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -979,7 +991,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -990,7 +1002,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1001,7 +1013,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -1010,7 +1022,7 @@
       </c>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -1019,7 +1031,7 @@
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -1028,7 +1040,7 @@
       </c>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -1037,7 +1049,7 @@
       </c>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -1046,7 +1058,7 @@
       </c>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1055,7 +1067,7 @@
       </c>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -1064,7 +1076,7 @@
       </c>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -1073,7 +1085,7 @@
       </c>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -1082,7 +1094,7 @@
       </c>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" ht="18.75">
+    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1093,7 +1105,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1104,7 +1116,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1113,7 +1125,7 @@
       </c>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3" ht="18.75">
+    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1124,7 +1136,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18.75">
+    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -1135,7 +1147,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="18.75">
+    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1146,7 +1158,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="18.75">
+    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1157,7 +1169,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -1168,7 +1180,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="18.75">
+    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -1179,7 +1191,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="18.75">
+    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1190,7 +1202,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18.75">
+    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -1199,7 +1211,7 @@
       </c>
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1210,7 +1222,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="18.75">
+    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1221,7 +1233,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -1232,7 +1244,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="18.75">
+    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -1243,7 +1255,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>64</v>
       </c>

--- a/Client/Assets/Language/LanguagePack.xlsx
+++ b/Client/Assets/Language/LanguagePack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siggn\PlanetMerge\Client\Assets\Language\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB817D7-7E96-4733-BF4C-4578817CA085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9151B5F3-7F14-49E3-A9A6-726E7B1CD4F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{4760DF0C-7382-47A6-9F4B-831A017CFC3A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="90">
   <si>
     <t>최고 점수 : {0}</t>
   </si>
@@ -276,15 +276,137 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>별점 주러 가기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Give a rating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coming soon!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いいえ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>オプション</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>閉じる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>サウンド</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>スコア : {0}</t>
+  </si>
+  <si>
+    <t>リトライ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>準備しています！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はじめからやりなおしますか?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에러</t>
+  </si>
+  <si>
+    <t>인터넷이 연결되어 있지 않습니다.</t>
+  </si>
+  <si>
+    <t>종료</t>
+  </si>
+  <si>
+    <t>에러가 발생하였습니다: {0}</t>
+  </si>
+  <si>
+    <t>Error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>An error has occurred.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>ゲ</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ムをやめてホ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ムでいきますか?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ゲ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF303F40"/>
-        <rFont val="Segoe UI"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>ー</t>
     </r>
@@ -295,6 +417,7 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
+        <scheme val="minor"/>
       </rPr>
       <t>ムスタ</t>
     </r>
@@ -302,8 +425,9 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF303F40"/>
-        <rFont val="Segoe UI"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>ー</t>
     </r>
@@ -314,6 +438,7 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
+        <scheme val="minor"/>
       </rPr>
       <t>ト</t>
     </r>
@@ -326,8 +451,37 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF303F40"/>
-        <rFont val="Segoe UI"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303F40"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ムの遊び方</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ゲ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303F40"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>ー</t>
     </r>
@@ -338,89 +492,54 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
+        <scheme val="minor"/>
       </rPr>
       <t>ム終了</t>
     </r>
   </si>
   <si>
-    <t>별점 주러 가기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Give a rating</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coming soon!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>はい</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>いいえ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ゲ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF303F40"/>
-        <rFont val="MS Gothic"/>
+    <r>
+      <t>ポ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="128"/>
+        <scheme val="minor"/>
       </rPr>
       <t>ー</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF303F40"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-      </rPr>
-      <t>ムの遊び方</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>オプション</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>音楽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>閉じる</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>サウンド</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>スコア : {0}</t>
-  </si>
-  <si>
-    <t>リトライ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ホームでもどる</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>準備しています！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ポーズ</t>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ズ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>音</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>楽</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -431,21 +550,12 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="128"/>
-      </rPr>
-      <t>ーむでもどる／ゲームをつづける</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>はじめからやりなおしますか?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ゲームをやめてホームでいきますか</t>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
     </r>
     <r>
       <rPr>
@@ -454,9 +564,64 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-      </rPr>
-      <t>?</t>
-    </r>
+        <scheme val="minor"/>
+      </rPr>
+      <t>むでもどる／ゲ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ムをつづける</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ホ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ムでもどる</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There is no internet connection.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,7 +629,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -491,51 +656,42 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF303F40"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF303F40"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF303F40"/>
-      <name val="MS Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF303F40"/>
-      <name val="Yu Gothic"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -566,7 +722,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -576,16 +732,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -922,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A23EAA1B-C57D-4EAB-825F-AE088EBA0DEA}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -951,21 +1098,21 @@
       <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>74</v>
+      <c r="C2" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>61</v>
       </c>
     </row>
@@ -973,21 +1120,21 @@
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="C4" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>81</v>
       </c>
     </row>
@@ -995,273 +1142,310 @@
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>62</v>
+      <c r="C6" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>69</v>
+      <c r="C7" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>39</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>40</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>41</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>42</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>43</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>44</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>58</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>45</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>46</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>4</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>70</v>
+      <c r="C17" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>5</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>63</v>
+      <c r="C18" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>29</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>10</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="C20" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>11</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="C21" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>12</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="C22" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>13</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>79</v>
+      <c r="C23" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>14</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="C24" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>15</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="C25" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>23</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="C26" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>35</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>30</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="C28" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>31</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>68</v>
+      <c r="C29" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>37</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="C30" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>47</v>
       </c>
-      <c r="B31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>77</v>
+      <c r="B31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" t="s">
-        <v>65</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Client/Assets/Language/LanguagePack.xlsx
+++ b/Client/Assets/Language/LanguagePack.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siggn\PlanetMerge\Client\Assets\Language\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PlanetMerge\Client\Assets\Language\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9151B5F3-7F14-49E3-A9A6-726E7B1CD4F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32E0AE6-91C7-407C-A135-85CFB7880340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{4760DF0C-7382-47A6-9F4B-831A017CFC3A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{4760DF0C-7382-47A6-9F4B-831A017CFC3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -343,10 +343,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>An error has occurred.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>ゲ</t>
     </r>
@@ -622,6 +618,10 @@
   </si>
   <si>
     <t>There is no internet connection.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>An error has occurred: {0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1072,18 +1072,18 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="53.08203125" customWidth="1"/>
+    <col min="1" max="1" width="53.0625" customWidth="1"/>
     <col min="2" max="2" width="63.5" customWidth="1"/>
-    <col min="3" max="3" width="46.08203125" customWidth="1"/>
-    <col min="4" max="4" width="8.58203125" customWidth="1"/>
+    <col min="3" max="3" width="46.0625" customWidth="1"/>
+    <col min="4" max="4" width="8.5625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1135,10 +1135,10 @@
         <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1146,10 +1146,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1157,10 +1157,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -1196,7 +1196,7 @@
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1260,10 +1260,10 @@
         <v>9</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1280,10 +1280,10 @@
         <v>16</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -1291,10 +1291,10 @@
         <v>17</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1313,10 +1313,10 @@
         <v>19</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -1335,10 +1335,10 @@
         <v>21</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1346,10 +1346,10 @@
         <v>21</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A33" t="s">
         <v>74</v>
       </c>
@@ -1420,16 +1420,16 @@
       </c>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A34" t="s">
         <v>75</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
         <v>76</v>
       </c>
@@ -1438,12 +1438,12 @@
       </c>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
         <v>77</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C36" s="2"/>
     </row>

--- a/Client/Assets/Language/LanguagePack.xlsx
+++ b/Client/Assets/Language/LanguagePack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PlanetMerge\Client\Assets\Language\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32E0AE6-91C7-407C-A135-85CFB7880340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655360DB-550F-4D8B-97C5-49BEC2043835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{4760DF0C-7382-47A6-9F4B-831A017CFC3A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="106">
   <si>
     <t>최고 점수 : {0}</t>
   </si>
@@ -169,10 +169,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Are you sure you want to close the game?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>게임 결과</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -256,10 +252,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Upgrade the planet you will drop to the next level.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>원하는 행성 하나를 선택해 없앨 수 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -268,10 +260,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Downgrade the planet you will drop to the next level.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>最高スコア : {0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -332,296 +320,725 @@
     <t>종료</t>
   </si>
   <si>
+    <t>Error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ゲ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ムをやめてホ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ムでいきますか?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ゲ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303F40"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303F40"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ムスタ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303F40"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303F40"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ト</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ゲ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303F40"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303F40"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ムの遊び方</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ゲ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303F40"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303F40"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ム終了</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ポ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ズ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>音</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>楽</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>げ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>むでもどる／ゲ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ムをつづける</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ホ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ムでもどる</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There is no internet connection.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>An error has occurred: {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>アップグレ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ド順序</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>アイテムの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>説</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>明</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1ゲ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ムにつき1つ使用でき、ゲ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ムが終了すると消えます。</t>
+    </r>
+  </si>
+  <si>
+    <t>Downgrade the planet you are dropping by one level.</t>
+  </si>
+  <si>
+    <t>Upgrade the planet you are dropping by one level.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do you want to quit the game?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>報告</t>
+  </si>
+  <si>
+    <t>評定を下す</t>
+  </si>
+  <si>
+    <t>誤謬</t>
+  </si>
+  <si>
+    <t>終了</t>
+  </si>
+  <si>
+    <r>
+      <t>アップグレ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ドし</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>爆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>弾</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ダウングレ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ドし</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ゲ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ムをやめたいですか？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>あなたが落とそうとしている惑星を1段階アップグレ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ドします。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1つの惑星を選</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>択</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>して、それを爆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>撃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>することができます。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>あなたが落とそうとしている惑星を1段階ダウングレ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ドします。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>インタ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ネット接</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>続</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>がありません。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>에러가 발생하였습니다: {0}</t>
-  </si>
-  <si>
-    <t>Error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ゲ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>エラ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Gothic"/>
         <family val="3"/>
         <charset val="128"/>
-        <scheme val="minor"/>
       </rPr>
       <t>ー</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ムをやめてホ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ムでいきますか?</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ゲ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF303F40"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF303F40"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ムスタ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF303F40"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF303F40"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ト</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ゲ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF303F40"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF303F40"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ムの遊び方</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ゲ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF303F40"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF303F40"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ム終了</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ポ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ズ</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>音</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>楽</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>げ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>むでもどる／ゲ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ムをつづける</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ホ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ムでもどる</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>There is no internet connection.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>An error has occurred: {0}</t>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>発</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>生しました: {0}</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -629,7 +1046,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -693,6 +1110,43 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="MS Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="새굴림"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -722,7 +1176,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -733,6 +1187,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1071,30 +1534,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A23EAA1B-C57D-4EAB-825F-AE088EBA0DEA}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <cols>
     <col min="1" max="1" width="53.0625" customWidth="1"/>
     <col min="2" max="2" width="63.5" customWidth="1"/>
-    <col min="3" max="3" width="46.0625" customWidth="1"/>
+    <col min="3" max="3" width="54.25" customWidth="1"/>
     <col min="4" max="4" width="8.5625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.6">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1102,10 +1565,10 @@
         <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1113,10 +1576,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1124,10 +1587,10 @@
         <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1135,10 +1598,10 @@
         <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1146,10 +1609,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1157,133 +1620,153 @@
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A10" t="s">
+      <c r="C10" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A13" t="s">
+      <c r="C14" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B15" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A15" t="s">
+      <c r="C15" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="B16" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="B19" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -1291,10 +1774,10 @@
         <v>17</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1302,10 +1785,10 @@
         <v>18</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1313,10 +1796,10 @@
         <v>19</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -1324,10 +1807,10 @@
         <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -1335,10 +1818,10 @@
         <v>21</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1346,19 +1829,21 @@
         <v>21</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="C27" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1366,10 +1851,10 @@
         <v>32</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1377,75 +1862,85 @@
         <v>33</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C30" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A33" t="s">
-        <v>74</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A34" t="s">
+      <c r="B34" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A35" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="C35" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>105</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Client/Assets/Language/LanguagePack.xlsx
+++ b/Client/Assets/Language/LanguagePack.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PlanetMerge\Client\Assets\Language\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\PlanetMerge\Client\Assets\Language\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655360DB-550F-4D8B-97C5-49BEC2043835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9B3B15-03B6-42C1-BCD4-E4DC6C063F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{4760DF0C-7382-47A6-9F4B-831A017CFC3A}"/>
+    <workbookView xWindow="990" yWindow="1155" windowWidth="21555" windowHeight="14130" xr2:uid="{4760DF0C-7382-47A6-9F4B-831A017CFC3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -525,56 +525,6 @@
   </si>
   <si>
     <r>
-      <t>げ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>むでもどる／ゲ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ムをつづける</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>ホ</t>
     </r>
     <r>
@@ -666,8 +616,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1ゲ</t>
+    <t>Downgrade the planet you are dropping by one level.</t>
+  </si>
+  <si>
+    <t>Upgrade the planet you are dropping by one level.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do you want to quit the game?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>報告</t>
+  </si>
+  <si>
+    <t>評定を下す</t>
+  </si>
+  <si>
+    <t>終了</t>
+  </si>
+  <si>
+    <r>
+      <t>爆</t>
     </r>
     <r>
       <rPr>
@@ -678,316 +648,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ムにつき1つ使用でき、ゲ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ムが終了すると消えます。</t>
-    </r>
-  </si>
-  <si>
-    <t>Downgrade the planet you are dropping by one level.</t>
-  </si>
-  <si>
-    <t>Upgrade the planet you are dropping by one level.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Do you want to quit the game?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>報告</t>
-  </si>
-  <si>
-    <t>評定を下す</t>
-  </si>
-  <si>
-    <t>誤謬</t>
-  </si>
-  <si>
-    <t>終了</t>
-  </si>
-  <si>
-    <r>
-      <t>アップグレ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ドし</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>爆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>弾</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>ダウングレ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ドし</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ゲ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ムをやめたいですか？</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>あなたが落とそうとしている惑星を1段階アップグレ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ドします。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1つの惑星を選</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>択</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>して、それを爆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>撃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>することができます。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>あなたが落とそうとしている惑星を1段階ダウングレ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ドします。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>インタ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ネット接</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>続</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>がありません。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>에러가 발생하였습니다: {0}</t>
@@ -1040,13 +702,344 @@
       <t>生しました: {0}</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>インタ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ネット接</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>続</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>がありません。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>エラ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ゲ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ムをつづける</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ゲ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ムをやめますか？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>いま落とそうとしている惑星を1段階ダウングレ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ドします</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>いま落とそうとしている惑星を1段階アップグレ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ード</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>します</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>アップグレ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ド</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ダウングレ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ド</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1つの惑星を選</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>択</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>して、その惑星を爆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>撃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>することができます。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1ゲ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ムにつき1つ使用できて、ゲ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ムが終了すると消えます。</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1147,6 +1140,42 @@
       <family val="1"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="MS Mincho"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="MS Mincho"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1192,10 +1221,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1534,16 +1563,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A23EAA1B-C57D-4EAB-825F-AE088EBA0DEA}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="53.0625" customWidth="1"/>
+    <col min="1" max="1" width="53.125" customWidth="1"/>
     <col min="2" max="2" width="63.5" customWidth="1"/>
     <col min="3" max="3" width="54.25" customWidth="1"/>
-    <col min="4" max="4" width="8.5625" customWidth="1"/>
+    <col min="4" max="4" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1631,7 +1660,7 @@
         <v>54</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1642,7 +1671,7 @@
         <v>53</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1653,7 +1682,7 @@
         <v>55</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1664,18 +1693,18 @@
         <v>52</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18.75">
       <c r="A12" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1686,7 +1715,7 @@
         <v>50</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1697,36 +1726,36 @@
         <v>57</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>51</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>89</v>
+      <c r="B16" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -1737,7 +1766,7 @@
       <c r="A18" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -1748,8 +1777,8 @@
       <c r="A19" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>91</v>
+      <c r="B19" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>99</v>
@@ -1759,7 +1788,7 @@
       <c r="A20" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1796,7 +1825,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1818,7 +1847,7 @@
         <v>21</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1829,7 +1858,7 @@
         <v>21</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1840,7 +1869,7 @@
         <v>35</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1895,18 +1924,18 @@
         <v>60</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="18.75">
       <c r="A33" t="s">
         <v>71</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>94</v>
+      <c r="C33" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1914,10 +1943,10 @@
         <v>72</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1928,18 +1957,18 @@
         <v>75</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Assets/Language/LanguagePack.xlsx
+++ b/Client/Assets/Language/LanguagePack.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\PlanetMerge\Client\Assets\Language\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siggn\PlanetMerge\Client\Assets\Language\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9B3B15-03B6-42C1-BCD4-E4DC6C063F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A78617A-2F94-45CD-BDC8-F12C015EB2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="1155" windowWidth="21555" windowHeight="14130" xr2:uid="{4760DF0C-7382-47A6-9F4B-831A017CFC3A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{4760DF0C-7382-47A6-9F4B-831A017CFC3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="148">
   <si>
     <t>최고 점수 : {0}</t>
   </si>
@@ -657,102 +657,6 @@
   </si>
   <si>
     <r>
-      <t>エラ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>が</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="새굴림"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>発</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>生しました: {0}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>インタ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ネット接</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>続</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>がありません。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
@@ -1033,6 +937,266 @@
       </rPr>
       <t>ムが終了すると消えます。</t>
     </r>
+  </si>
+  <si>
+    <t>언어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>インタ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ネット接</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>続</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>がありません。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>エラ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="1"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>発</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>生しました: {0}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$현재 점수 : {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$최고 점수 : {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$처음부터 다시 하시겠습니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$메인으로 돌아가시겠습니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$게임 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$게임 안내</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$업그레이드 순서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$아이템 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$1판에 각 1개씩 사용 가능하며, 게임 종료 시 소멸된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$업그레이드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$현재 떨어트릴 수 있는 행성을 한 단계 업그레이드 시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$폭탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$원하는 행성 하나를 선택해 없앨 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$다운그레이드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$현재 떨어트릴 수 있는 행성을 한 단계 다운그레이드 시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$환경설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$게임을 종료하시겠습니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$게임 종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$일시정지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$배경음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$효과음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$게임으로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$다시하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$메인으로 가기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$메인으로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$게임 결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$예</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$아니오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$닫기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$준비 중입니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$별점 주러 가기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$인터넷이 연결되어 있지 않습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$에러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$에러가 발생하였습니다: {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$언어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1129,20 +1293,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="MS Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="새굴림"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="MS Mincho"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1176,8 +1326,22 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="1"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1190,8 +1354,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1199,13 +1375,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1224,7 +1409,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1561,414 +1758,549 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A23EAA1B-C57D-4EAB-825F-AE088EBA0DEA}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="53.125" customWidth="1"/>
-    <col min="2" max="2" width="63.5" customWidth="1"/>
-    <col min="3" max="3" width="54.25" customWidth="1"/>
-    <col min="4" max="4" width="8.625" customWidth="1"/>
+    <col min="1" max="1" width="53.1640625" customWidth="1"/>
+    <col min="2" max="2" width="53.08203125" customWidth="1"/>
+    <col min="3" max="3" width="63.5" customWidth="1"/>
+    <col min="4" max="4" width="54.25" customWidth="1"/>
+    <col min="5" max="5" width="8.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="10"/>
+      <c r="B2" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D11" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18">
+      <c r="A13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>139</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>141</v>
+      </c>
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18">
+      <c r="A34" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>143</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="18.75">
-      <c r="A12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="18.75">
-      <c r="A33" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>73</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>94</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>95</v>
+      <c r="D38" s="7" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Assets/Language/LanguagePack.xlsx
+++ b/Client/Assets/Language/LanguagePack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siggn\PlanetMerge\Client\Assets\Language\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A78617A-2F94-45CD-BDC8-F12C015EB2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A3D16B-5126-4765-92FD-F1899E5B2391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{4760DF0C-7382-47A6-9F4B-831A017CFC3A}"/>
   </bookViews>
@@ -1761,7 +1761,7 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>

--- a/Client/Assets/Language/LanguagePack.xlsx
+++ b/Client/Assets/Language/LanguagePack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siggn\PlanetMerge\Client\Assets\Language\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A3D16B-5126-4765-92FD-F1899E5B2391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1737C05E-2A52-44A8-B073-31A0DFDAE64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{4760DF0C-7382-47A6-9F4B-831A017CFC3A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="152">
   <si>
     <t>최고 점수 : {0}</t>
   </si>
@@ -1196,6 +1196,46 @@
   </si>
   <si>
     <t>$$언어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$최고 점수 달성!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최고 점수 달성!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Record!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>最高記</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>録</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>達成!</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1758,10 +1798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A23EAA1B-C57D-4EAB-825F-AE088EBA0DEA}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -2151,155 +2191,169 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>149</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>90</v>
+        <v>150</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
         <v>142</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="18">
-      <c r="A34" t="s">
+    <row r="35" spans="1:4" ht="18">
+      <c r="A35" t="s">
         <v>144</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D35" s="6" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>143</v>
-      </c>
-      <c r="B35" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B37" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
+        <v>146</v>
+      </c>
+      <c r="B38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
         <v>147</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>104</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D39" s="7" t="s">
         <v>108</v>
       </c>
     </row>

--- a/Client/Assets/Language/LanguagePack.xlsx
+++ b/Client/Assets/Language/LanguagePack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siggn\PlanetMerge\Client\Assets\Language\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1737C05E-2A52-44A8-B073-31A0DFDAE64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEAE42C-F08C-46A2-AAC2-43B222A5B4D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{4760DF0C-7382-47A6-9F4B-831A017CFC3A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="156">
   <si>
     <t>최고 점수 : {0}</t>
   </si>
@@ -1237,6 +1237,21 @@
       <t>達成!</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$피드백 남기기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피드백 남기기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Give feedback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感想を述べます</t>
   </si>
 </sst>
 </file>
@@ -1798,10 +1813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A23EAA1B-C57D-4EAB-825F-AE088EBA0DEA}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -2330,10 +2345,10 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" t="s">
+      <c r="A38" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -2344,10 +2359,10 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" t="s">
+      <c r="A39" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -2355,6 +2370,20 @@
       </c>
       <c r="D39" s="7" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
